--- a/atomica/library/tb_simple_progbook.xlsx
+++ b/atomica/library/tb_simple_progbook.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A64F5B-826D-4FFF-92FC-23FBBA4F672D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
     <sheet name="Spending data" sheetId="2" r:id="rId2"/>
     <sheet name="Program effects" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -132,8 +145,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,26 +247,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA500"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="104">
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
@@ -277,8 +271,929 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -566,24 +1481,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="1" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="5" max="9" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,7 +1501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -617,7 +1527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -643,7 +1553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -669,7 +1579,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -695,7 +1605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -723,196 +1633,127 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="13" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="19" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="0" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="9" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="15" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="0" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="21" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="4" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="16" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="22" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="11" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="17" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="23" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="6" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="12" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="0" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="18" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="0" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="24" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="24">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6">
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E3:I6 C3:C6" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -921,12 +1762,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
@@ -935,7 +1776,7 @@
     <col min="5" max="5" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="str">
         <f>'Program targeting'!$B$3</f>
         <v>Passive case finding</v>
@@ -966,7 +1807,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -986,7 +1827,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -1001,12 +1842,12 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6">
-        <v>666.6666666666667</v>
+        <v>666.66666666666674</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -1024,7 +1865,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -1042,7 +1883,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
@@ -1062,7 +1903,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f>'Program targeting'!$B$4</f>
         <v>Active case finding</v>
@@ -1093,7 +1934,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -1113,7 +1954,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1128,12 +1969,12 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6">
-        <v>533.3333333333334</v>
+        <v>533.33333333333337</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -1151,7 +1992,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -1169,7 +2010,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -1189,7 +2030,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
         <f>'Program targeting'!$B$5</f>
         <v>Treatment initiation</v>
@@ -1220,7 +2061,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -1240,7 +2081,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -1260,7 +2101,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -1278,7 +2119,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
@@ -1296,7 +2137,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
@@ -1316,7 +2157,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="str">
         <f>'Program targeting'!$B$6</f>
         <v>Treatment support</v>
@@ -1347,7 +2188,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
@@ -1367,7 +2208,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1387,7 +2228,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -1405,7 +2246,7 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -1423,7 +2264,7 @@
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -1445,188 +2286,170 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="1" priority="13">
+    <cfRule type="expression" dxfId="79" priority="13">
       <formula>COUNTIF(F10:J10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="14">
+    <cfRule type="expression" dxfId="78" priority="14">
       <formula>AND(COUNTIF(F10:J10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="1" priority="15">
+    <cfRule type="expression" dxfId="77" priority="15">
       <formula>COUNTIF(F11:J11,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="16">
+    <cfRule type="expression" dxfId="76" priority="16">
       <formula>AND(COUNTIF(F11:J11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="1" priority="17">
+    <cfRule type="expression" dxfId="75" priority="17">
       <formula>COUNTIF(F12:J12,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="18">
+    <cfRule type="expression" dxfId="74" priority="18">
       <formula>AND(COUNTIF(F12:J12,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="1" priority="19">
+    <cfRule type="expression" dxfId="73" priority="19">
       <formula>COUNTIF(F13:J13,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="20">
+    <cfRule type="expression" dxfId="72" priority="20">
       <formula>AND(COUNTIF(F13:J13,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="1" priority="21">
+    <cfRule type="expression" dxfId="71" priority="21">
       <formula>COUNTIF(F16:J16,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="22">
+    <cfRule type="expression" dxfId="70" priority="22">
       <formula>AND(COUNTIF(F16:J16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="1" priority="23">
+    <cfRule type="expression" dxfId="69" priority="23">
       <formula>COUNTIF(F17:J17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="24">
+    <cfRule type="expression" dxfId="68" priority="24">
       <formula>AND(COUNTIF(F17:J17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="1" priority="25">
+    <cfRule type="expression" dxfId="67" priority="25">
       <formula>COUNTIF(F18:J18,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="26">
+    <cfRule type="expression" dxfId="66" priority="26">
       <formula>AND(COUNTIF(F18:J18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="1" priority="27">
+    <cfRule type="expression" dxfId="65" priority="27">
       <formula>COUNTIF(F19:J19,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="28">
+    <cfRule type="expression" dxfId="64" priority="28">
       <formula>AND(COUNTIF(F19:J19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="63" priority="1">
       <formula>COUNTIF(F2:J2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="62" priority="2">
       <formula>AND(COUNTIF(F2:J2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="1" priority="29">
+    <cfRule type="expression" dxfId="61" priority="29">
       <formula>COUNTIF(F20:J20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="30">
+    <cfRule type="expression" dxfId="60" priority="30">
       <formula>AND(COUNTIF(F20:J20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="1" priority="31">
+    <cfRule type="expression" dxfId="59" priority="31">
       <formula>COUNTIF(F23:J23,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="32">
+    <cfRule type="expression" dxfId="58" priority="32">
       <formula>AND(COUNTIF(F23:J23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="expression" dxfId="1" priority="33">
+    <cfRule type="expression" dxfId="57" priority="33">
       <formula>COUNTIF(F24:J24,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="34">
+    <cfRule type="expression" dxfId="56" priority="34">
       <formula>AND(COUNTIF(F24:J24,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="1" priority="35">
+    <cfRule type="expression" dxfId="55" priority="35">
       <formula>COUNTIF(F25:J25,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="36">
+    <cfRule type="expression" dxfId="54" priority="36">
       <formula>AND(COUNTIF(F25:J25,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="1" priority="37">
+    <cfRule type="expression" dxfId="53" priority="37">
       <formula>COUNTIF(F26:J26,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="38">
+    <cfRule type="expression" dxfId="52" priority="38">
       <formula>AND(COUNTIF(F26:J26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="1" priority="39">
+    <cfRule type="expression" dxfId="51" priority="39">
       <formula>COUNTIF(F27:J27,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="40">
+    <cfRule type="expression" dxfId="50" priority="40">
       <formula>AND(COUNTIF(F27:J27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="49" priority="3">
       <formula>COUNTIF(F3:J3,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="48" priority="4">
       <formula>AND(COUNTIF(F3:J3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="47" priority="5">
       <formula>COUNTIF(F4:J4,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="46" priority="6">
       <formula>AND(COUNTIF(F4:J4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="45" priority="7">
       <formula>COUNTIF(F5:J5,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="8">
+    <cfRule type="expression" dxfId="44" priority="8">
       <formula>AND(COUNTIF(F5:J5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="1" priority="9">
+    <cfRule type="expression" dxfId="43" priority="9">
       <formula>COUNTIF(F6:J6,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule type="expression" dxfId="42" priority="10">
       <formula>AND(COUNTIF(F6:J6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="1" priority="11">
+    <cfRule type="expression" dxfId="41" priority="11">
       <formula>COUNTIF(F9:J9,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="40" priority="12">
       <formula>AND(COUNTIF(F9:J9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B3 B24 B17 B10" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
-      <formula1>"people/year,people"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>"$/person (one-off),$/person/year"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
-      <formula1>"people/year,people"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
-      <formula1>"$/person (one-off),$/person/year"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
-      <formula1>"people/year,people"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
-      <formula1>"$/person (one-off),$/person/year"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B4 B25 B18 B11" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1635,25 +2458,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="2" max="5" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="23.7109375" customWidth="1"/>
     <col min="8" max="8" width="22.5703125" customWidth="1"/>
     <col min="9" max="9" width="23.7109375" customWidth="1"/>
     <col min="10" max="10" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -1686,7 +2506,7 @@
         <v>Treatment support</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
@@ -1708,7 +2528,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
@@ -1741,7 +2561,7 @@
         <v>Treatment support</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
@@ -1761,7 +2581,7 @@
       </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
@@ -1794,7 +2614,7 @@
         <v>Treatment support</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
@@ -1814,7 +2634,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -1847,7 +2667,7 @@
         <v>Treatment support</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>'Program targeting'!$C$2</f>
         <v>Adults</v>
@@ -1865,191 +2685,675 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="1" priority="39">
+    <cfRule type="expression" dxfId="39" priority="39">
       <formula>COUNTIF(F11:J11,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="40">
+    <cfRule type="expression" dxfId="38" priority="40">
       <formula>AND(COUNTIF(F11:J11,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="1" priority="9">
+    <cfRule type="expression" dxfId="37" priority="9">
       <formula>COUNTIF(F2:J2,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="10">
+    <cfRule type="expression" dxfId="36" priority="10">
       <formula>AND(COUNTIF(F2:J2,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="1" priority="19">
+    <cfRule type="expression" dxfId="35" priority="19">
       <formula>COUNTIF(F5:J5,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="20">
+    <cfRule type="expression" dxfId="34" priority="20">
       <formula>AND(COUNTIF(F5:J5,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="1" priority="29">
+    <cfRule type="expression" dxfId="33" priority="29">
       <formula>COUNTIF(F8:J8,"&lt;&gt;" &amp; "")&lt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="30">
+    <cfRule type="expression" dxfId="32" priority="30">
       <formula>AND(COUNTIF(F8:J8,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="2" priority="31">
-      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G11)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="32">
-      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="2" priority="11">
-      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G5)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="12">
-      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="2" priority="21">
-      <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="22">
-      <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="2" priority="33">
-      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H11)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="34">
-      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="2" priority="13">
-      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H5)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="14">
-      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="2" priority="23">
-      <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="24">
-      <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="2" priority="35">
-      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I11)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="36">
-      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="expression" dxfId="2" priority="5">
-      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
-      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="2" priority="15">
-      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I5)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="16">
-      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="2" priority="25">
-      <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="26">
-      <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="2" priority="37">
-      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J11)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="38">
-      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
-    <cfRule type="expression" dxfId="2" priority="7">
-      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J2)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8">
-      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="2" priority="17">
-      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J5)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="18">
-      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="2" priority="27">
-      <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J8)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="28">
-      <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2 C11 C8 C5" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11">
-      <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2 D11 D8 D5" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Synergistic,Best"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="31" id="{00000000-000E-0000-0200-00001F000000}">
+            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G11)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="32" id="{00000000-000E-0000-0200-000020000000}">
+            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{00000000-000E-0000-0200-000001000000}">
+            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="2" id="{00000000-000E-0000-0200-000002000000}">
+            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="11" id="{00000000-000E-0000-0200-00000B000000}">
+            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G5)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="12" id="{00000000-000E-0000-0200-00000C000000}">
+            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="21" id="{00000000-000E-0000-0200-000015000000}">
+            <xm:f>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="22" id="{00000000-000E-0000-0200-000016000000}">
+            <xm:f>'Program targeting'!$C$3&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="33" id="{00000000-000E-0000-0200-000021000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H11)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="34" id="{00000000-000E-0000-0200-000022000000}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="3" id="{00000000-000E-0000-0200-000003000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="4" id="{00000000-000E-0000-0200-000004000000}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="13" id="{00000000-000E-0000-0200-00000D000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H5)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="14" id="{00000000-000E-0000-0200-00000E000000}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="23" id="{00000000-000E-0000-0200-000017000000}">
+            <xm:f>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="24" id="{00000000-000E-0000-0200-000018000000}">
+            <xm:f>'Program targeting'!$C$4&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="35" id="{00000000-000E-0000-0200-000023000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I11)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="36" id="{00000000-000E-0000-0200-000024000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="5" id="{00000000-000E-0000-0200-000005000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="6" id="{00000000-000E-0000-0200-000006000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="15" id="{00000000-000E-0000-0200-00000F000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I5)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="16" id="{00000000-000E-0000-0200-000010000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="25" id="{00000000-000E-0000-0200-000019000000}">
+            <xm:f>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="26" id="{00000000-000E-0000-0200-00001A000000}">
+            <xm:f>'Program targeting'!$C$5&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="37" id="{00000000-000E-0000-0200-000025000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J11)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="38" id="{00000000-000E-0000-0200-000026000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="7" id="{00000000-000E-0000-0200-000007000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J2)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="8" id="{00000000-000E-0000-0200-000008000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="17" id="{00000000-000E-0000-0200-000011000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J5)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="18" id="{00000000-000E-0000-0200-000012000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="27" id="{00000000-000E-0000-0200-00001B000000}">
+            <xm:f>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J8)))</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="28" id="{00000000-000E-0000-0200-00001C000000}">
+            <xm:f>'Program targeting'!$C$6&lt;&gt;"Y"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="lightUp">
+                  <bgColor rgb="FFEEEEEE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </left>
+                <right style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </right>
+                <top style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </top>
+                <bottom style="thin">
+                  <color rgb="FFCCCCCC"/>
+                </bottom>
+                <vertical/>
+                <horizontal/>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J8</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/atomica/library/tb_simple_progbook.xlsx
+++ b/atomica/library/tb_simple_progbook.xlsx
@@ -2012,30 +2012,18 @@
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11">
       <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11">
-      <formula1>"Synergistic,Best"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
